--- a/projects/test_building/input/Scenario_HeatingTechnology_Cost_Labor.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Cost_Labor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D424EFFB-075D-1F4D-A0DD-A15DE43B13C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13080AA-E43F-544D-AA71-CF4C42445BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="5140" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AQ2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>

--- a/projects/test_building/input/Scenario_HeatingTechnology_Cost_Labor.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Cost_Labor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13080AA-E43F-544D-AA71-CF4C42445BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="5140" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="5145" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -157,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,52 +206,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AQ2" totalsRowShown="0">
-  <autoFilter ref="A1:AQ2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AQ2" totalsRowShown="0">
+  <autoFilter ref="A1:AQ2"/>
   <tableColumns count="43">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="unit"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
-    <tableColumn id="1" xr3:uid="{7BCF29C5-3E34-164D-AF8C-17EFE9A9AFDE}" name="2012"/>
-    <tableColumn id="3" xr3:uid="{BA879313-0CD8-AC40-9BF5-F36B5F9C7167}" name="2013"/>
-    <tableColumn id="4" xr3:uid="{E71CF34A-1892-0445-AE5C-FEBF5E130064}" name="2014"/>
-    <tableColumn id="5" xr3:uid="{082F7684-9851-7140-BE75-F9DB708CAA0E}" name="2015"/>
-    <tableColumn id="9" xr3:uid="{12533D54-DCF0-334C-A25E-4460A91A9B10}" name="2016"/>
-    <tableColumn id="10" xr3:uid="{D8BF7C92-C030-9A4B-AF03-42163067291D}" name="2017"/>
-    <tableColumn id="11" xr3:uid="{465371A3-1CAA-C842-8DC6-143345366D04}" name="2018"/>
-    <tableColumn id="12" xr3:uid="{EC9C04FD-2056-AF4E-8A8E-7126F73CF6E2}" name="2019"/>
-    <tableColumn id="13" xr3:uid="{DD3D2029-86A9-0940-8CA9-83971ECE765B}" name="2020"/>
-    <tableColumn id="14" xr3:uid="{D6DC11F2-61C3-9B46-86AC-AB9E8FEB1DBB}" name="2021"/>
-    <tableColumn id="15" xr3:uid="{6CE7972D-D85E-6449-9043-8D032F8D8927}" name="2022"/>
-    <tableColumn id="16" xr3:uid="{A3F35DAE-23D4-9A49-8D6F-41E2680E38B8}" name="2023"/>
-    <tableColumn id="17" xr3:uid="{D2504D47-4B02-9A47-B860-29203DF066D7}" name="2024"/>
-    <tableColumn id="18" xr3:uid="{8C91CE28-501D-E648-8B42-570FF80F0A38}" name="2025"/>
-    <tableColumn id="19" xr3:uid="{05F0A176-FBE3-E54B-B4E8-986E3BE6C15B}" name="2026"/>
-    <tableColumn id="20" xr3:uid="{EBE31F30-9CB7-CF4E-83A3-FD4E406C973F}" name="2027"/>
-    <tableColumn id="21" xr3:uid="{0382824C-1B0D-604F-B426-A555D407D434}" name="2028"/>
-    <tableColumn id="22" xr3:uid="{E73F918C-5EC1-CF48-BBEA-2BE87C633BCD}" name="2029"/>
-    <tableColumn id="23" xr3:uid="{DA9FB3CC-C4B9-874A-940C-188A2509381C}" name="2030"/>
-    <tableColumn id="24" xr3:uid="{809A698E-847A-6047-94C1-EE981AE2D113}" name="2031"/>
-    <tableColumn id="25" xr3:uid="{F633E0DD-6839-B249-B1D9-A0A040F9ED52}" name="2032"/>
-    <tableColumn id="26" xr3:uid="{69B91030-20A8-8D4B-AEAD-6026323C6DF9}" name="2033"/>
-    <tableColumn id="27" xr3:uid="{3E0FD70D-AD4A-CF4A-806D-0310EC4315C5}" name="2034"/>
-    <tableColumn id="28" xr3:uid="{40C790A4-3402-924B-AE29-A1AEE38DF30D}" name="2035"/>
-    <tableColumn id="29" xr3:uid="{569549DB-926C-4746-82D0-6742EE59879B}" name="2036"/>
-    <tableColumn id="30" xr3:uid="{691F151C-3D39-3643-B8D6-DF41CFC55B85}" name="2037"/>
-    <tableColumn id="31" xr3:uid="{4E3EA883-1CDD-5C47-B5A5-A25D6A683021}" name="2038"/>
-    <tableColumn id="32" xr3:uid="{695D656D-C671-8448-9BEE-10DBA8358B70}" name="2039"/>
-    <tableColumn id="33" xr3:uid="{A3F2278B-4540-3742-B783-DF3F3679E0F2}" name="2040"/>
-    <tableColumn id="34" xr3:uid="{454E9B7B-49CA-7340-BA3F-95B4A4B22FBB}" name="2041"/>
-    <tableColumn id="35" xr3:uid="{3636DDD0-469B-5647-85A4-57F13E176042}" name="2042"/>
-    <tableColumn id="36" xr3:uid="{02DEB433-2E54-0B48-ADA2-3E8E9E16FD62}" name="2043"/>
-    <tableColumn id="37" xr3:uid="{7B804590-6BCA-D842-8DBC-01B9ACC60F33}" name="2044"/>
-    <tableColumn id="38" xr3:uid="{A73D0F4D-CBCC-E849-9E84-023ADC64A706}" name="2045"/>
-    <tableColumn id="39" xr3:uid="{AC467019-0432-5C45-9CF2-70CA8756C7AF}" name="2046"/>
-    <tableColumn id="40" xr3:uid="{0E67F2A9-CB40-414A-92F1-B5F17324B7D0}" name="2047"/>
-    <tableColumn id="41" xr3:uid="{A9407CCA-7D21-BF4A-9E0E-3DDA73702127}" name="2048"/>
-    <tableColumn id="42" xr3:uid="{C9AB559A-3D3D-3E4C-9A99-C24D984D90FD}" name="2049"/>
-    <tableColumn id="43" xr3:uid="{667A1107-BC16-8B44-86F8-909252FC2D58}" name="2050"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="6" name="unit"/>
+    <tableColumn id="7" name="2010"/>
+    <tableColumn id="8" name="2011"/>
+    <tableColumn id="1" name="2012"/>
+    <tableColumn id="3" name="2013"/>
+    <tableColumn id="4" name="2014"/>
+    <tableColumn id="5" name="2015"/>
+    <tableColumn id="9" name="2016"/>
+    <tableColumn id="10" name="2017"/>
+    <tableColumn id="11" name="2018"/>
+    <tableColumn id="12" name="2019"/>
+    <tableColumn id="13" name="2020"/>
+    <tableColumn id="14" name="2021"/>
+    <tableColumn id="15" name="2022"/>
+    <tableColumn id="16" name="2023"/>
+    <tableColumn id="17" name="2024"/>
+    <tableColumn id="18" name="2025"/>
+    <tableColumn id="19" name="2026"/>
+    <tableColumn id="20" name="2027"/>
+    <tableColumn id="21" name="2028"/>
+    <tableColumn id="22" name="2029"/>
+    <tableColumn id="23" name="2030"/>
+    <tableColumn id="24" name="2031"/>
+    <tableColumn id="25" name="2032"/>
+    <tableColumn id="26" name="2033"/>
+    <tableColumn id="27" name="2034"/>
+    <tableColumn id="28" name="2035"/>
+    <tableColumn id="29" name="2036"/>
+    <tableColumn id="30" name="2037"/>
+    <tableColumn id="31" name="2038"/>
+    <tableColumn id="32" name="2039"/>
+    <tableColumn id="33" name="2040"/>
+    <tableColumn id="34" name="2041"/>
+    <tableColumn id="35" name="2042"/>
+    <tableColumn id="36" name="2043"/>
+    <tableColumn id="37" name="2044"/>
+    <tableColumn id="38" name="2045"/>
+    <tableColumn id="39" name="2046"/>
+    <tableColumn id="40" name="2047"/>
+    <tableColumn id="41" name="2048"/>
+    <tableColumn id="42" name="2049"/>
+    <tableColumn id="43" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,22 +519,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
